--- a/Dokumente_Teamprojekt/GANTT-Diagramm.xlsx
+++ b/Dokumente_Teamprojekt/GANTT-Diagramm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbeitslaptop\OneDrive\Studium\Studium\6. Semester\Teamprojekt\Parkplatzerkennung\Dokumente_Teamprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FBA225-76E9-4D05-A626-D8B94FCFF429}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0AF214-6B75-40FD-B39B-65104F2FA9A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Phase</t>
   </si>
@@ -111,18 +111,17 @@
     <t>Dokumente erstellen</t>
   </si>
   <si>
-    <t>Projektspezifische
-Aufgaben</t>
-  </si>
-  <si>
     <t>Bearbeitung Arbeitspakete dritter Sprint</t>
+  </si>
+  <si>
+    <t>Projektspezifische Aufgaben</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,15 +131,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u val="double"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -186,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -374,19 +364,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -481,17 +458,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -542,32 +508,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -648,7 +588,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -658,24 +598,91 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -685,23 +692,40 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -712,17 +736,43 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -732,173 +782,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1179,332 +1177,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="19" width="5.7109375" customWidth="1"/>
     <col min="20" max="25" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="16" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="16" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="15">
         <v>4</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="15">
         <v>11</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="15">
         <v>18</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="15">
         <v>25</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="14">
         <v>1</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="15">
         <v>8</v>
       </c>
-      <c r="I2" s="70">
+      <c r="I2" s="27">
         <v>15</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="15">
         <v>22</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="14">
         <v>29</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="15">
         <v>6</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="15">
         <v>13</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="14">
         <v>20</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="16">
         <v>27</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="14">
         <v>3</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="15">
         <v>10</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="15">
         <v>17</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="69" t="s">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="67"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="58"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="45"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="13"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="1"/>
       <c r="L10" s="3"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="1"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="1"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
@@ -1516,18 +1515,18 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="8" t="s">
-        <v>16</v>
+      <c r="A13" s="34"/>
+      <c r="B13" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="1"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
@@ -1539,18 +1538,18 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="23" t="s">
-        <v>17</v>
+      <c r="A14" s="34"/>
+      <c r="B14" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="1"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
@@ -1562,18 +1561,18 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="23" t="s">
-        <v>18</v>
+      <c r="A15" s="34"/>
+      <c r="B15" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="1"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
@@ -1585,115 +1584,205 @@
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="2"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="43"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="46"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="5"/>
       <c r="L17" s="4"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="4"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="46"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="77"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="82" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
+      <c r="B20" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="74"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="B21" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39"/>
+      <c r="B23" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A3:A5"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>

--- a/Dokumente_Teamprojekt/GANTT-Diagramm.xlsx
+++ b/Dokumente_Teamprojekt/GANTT-Diagramm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbeitslaptop\OneDrive\Studium\Studium\6. Semester\Teamprojekt\Parkplatzerkennung\Dokumente_Teamprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0AF214-6B75-40FD-B39B-65104F2FA9A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{5C0AF214-6B75-40FD-B39B-65104F2FA9A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0721C7E9-15E6-4CA4-B6EC-66BBCCA039B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="37">
   <si>
     <t>Phase</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Arbeitspakete</t>
   </si>
   <si>
-    <t>Bearbeitung Arbeitspakete zweiter Sprint</t>
-  </si>
-  <si>
     <t>Sprint Review</t>
   </si>
   <si>
@@ -115,6 +112,36 @@
   </si>
   <si>
     <t>Projektspezifische Aufgaben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch-Normalization </t>
+  </si>
+  <si>
+    <t>Hyperparameter optimieren</t>
+  </si>
+  <si>
+    <t>Verschiedene Inputgrößen testen</t>
+  </si>
+  <si>
+    <t>Generator benutzen</t>
+  </si>
+  <si>
+    <t>Augmentation</t>
+  </si>
+  <si>
+    <t>Weitere Tests</t>
+  </si>
+  <si>
+    <t>Bilder Ordnerstruktur</t>
+  </si>
+  <si>
+    <t>Ausschneiden der Parkplätze überarbeiten</t>
+  </si>
+  <si>
+    <t>Skript zum Ermitteln der Größe der Bilder</t>
+  </si>
+  <si>
+    <t>Collab einarbeiten</t>
   </si>
 </sst>
 </file>
@@ -176,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -538,17 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -565,15 +581,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -587,11 +594,78 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -604,131 +678,25 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -766,57 +734,42 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,67 +789,113 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1177,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,597 +1191,805 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="29" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="29" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="29" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="14">
         <v>4</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>11</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>18</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>25</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="15">
         <v>1</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>8</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="16">
         <v>15</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>22</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="15">
         <v>29</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <v>6</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>13</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="15">
         <v>20</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="17">
         <v>27</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="15">
         <v>3</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="14">
         <v>10</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="14">
         <v>17</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="17">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="25"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="31"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="39"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="43"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="31"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="31"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="39"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="39"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="39"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="39"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="39"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="39"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="39"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="57"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="43"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="31"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="31"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="31"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="31"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="31"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="31"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="31"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="31"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="31"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="31"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="39"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="43"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="31"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="65"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="43"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="6"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="11"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="55" t="s">
+      <c r="C31" s="38"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="39"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="11"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="6"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A18:A29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>

--- a/Dokumente_Teamprojekt/GANTT-Diagramm.xlsx
+++ b/Dokumente_Teamprojekt/GANTT-Diagramm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbeitslaptop\OneDrive\Studium\Studium\6. Semester\Teamprojekt\Parkplatzerkennung\Dokumente_Teamprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{5C0AF214-6B75-40FD-B39B-65104F2FA9A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0721C7E9-15E6-4CA4-B6EC-66BBCCA039B0}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{5C0AF214-6B75-40FD-B39B-65104F2FA9A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{46A09282-2BB0-40C5-814A-26551221C0D0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Phase</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Dokumente erstellen</t>
   </si>
   <si>
-    <t>Bearbeitung Arbeitspakete dritter Sprint</t>
-  </si>
-  <si>
     <t>Projektspezifische Aufgaben</t>
   </si>
   <si>
@@ -142,6 +139,15 @@
   </si>
   <si>
     <t>Collab einarbeiten</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>Systemdokumentation anfertigen</t>
+  </si>
+  <si>
+    <t>Regularization</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -762,50 +768,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -883,12 +894,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -896,6 +901,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1176,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,792 +1242,932 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12" t="s">
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="12" t="s">
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="12" t="s">
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="14">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="2">
         <v>11</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="2">
         <v>18</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="2">
         <v>25</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="2">
         <v>8</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="4">
         <v>15</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="2">
         <v>22</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="3">
         <v>29</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="2">
         <v>6</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="2">
         <v>13</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="3">
         <v>20</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="5">
         <v>27</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="3">
         <v>3</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="2">
         <v>10</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="2">
         <v>17</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="19"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="27"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="70"/>
+      <c r="B6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="31"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="19"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="27"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="27"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="27"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="27"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="45"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="60"/>
+      <c r="B17" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="31"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="19"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="25"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="31"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="39"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="43"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="44" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="19"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
+      <c r="B21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="19"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
+      <c r="B22" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="19"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="19"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="19"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="64"/>
+      <c r="B25" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="19"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="64"/>
+      <c r="B26" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="19"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="64"/>
+      <c r="B27" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="19"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="64"/>
+      <c r="B28" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="27"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="66"/>
+      <c r="B29" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="31"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="31"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="31"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="39"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="39"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="39"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="39"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="39"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="39"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="39"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="57"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="58" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="19"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="64"/>
+      <c r="B31" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="19"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="64"/>
+      <c r="B32" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="19"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="64"/>
+      <c r="B33" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="19"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="19"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="19"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="27"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="66"/>
+      <c r="B37" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="43"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="31"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="31"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="31"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="31"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="31"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="31"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="31"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="31"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="31"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="31"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="75" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="31"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="39"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="43"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="31"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="39"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="43"/>
+      <c r="B38" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1988,7 +2179,7 @@
     <mergeCell ref="A7:A17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A30:A37"/>
     <mergeCell ref="A18:A29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
